--- a/Python/output/case-study/FC_SA_summary-KPI-1.xlsx
+++ b/Python/output/case-study/FC_SA_summary-KPI-1.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA90326-91EB-4C4A-A513-D3903C22F9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="3280" windowWidth="28040" windowHeight="17440" xr2:uid="{EF96FA1E-94E1-B24B-B505-91F1EC6AB9B5}"/>
+    <workbookView xWindow="16740" yWindow="7080" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="FC_SA_FAresults-KPI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -917,11 +924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11199C6-00B6-F842-83D7-813F9E786089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:L11"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,13 +1093,13 @@
         <v>8500</v>
       </c>
       <c r="G3">
-        <v>8197.7081920000001</v>
+        <v>8149.5637340053299</v>
       </c>
       <c r="H3">
-        <v>7673.9114289999998</v>
+        <v>7418.2404459217396</v>
       </c>
       <c r="I3">
-        <v>6995.5625170000003</v>
+        <v>6473.3635219301505</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1119,10 +1126,10 @@
         <v>0.98</v>
       </c>
       <c r="R3">
-        <v>0.92300000000000004</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="S3">
-        <v>0.86</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1146,13 +1153,13 @@
         <v>8500</v>
       </c>
       <c r="AA3">
-        <v>8365.0083599999998</v>
+        <v>8315.8813612299291</v>
       </c>
       <c r="AB3">
-        <v>8314.0968900000007</v>
+        <v>8410.7034534260092</v>
       </c>
       <c r="AC3">
-        <v>8134.3750200000004</v>
+        <v>8101.8316920277302</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1178,19 +1185,19 @@
         <v>8313</v>
       </c>
       <c r="E4">
-        <v>12931.69954</v>
+        <v>11180.036382865401</v>
       </c>
       <c r="F4">
-        <v>14902.0398</v>
+        <v>14718.112689759</v>
       </c>
       <c r="G4">
-        <v>13845.94382</v>
+        <v>13073.435939484099</v>
       </c>
       <c r="H4">
-        <v>10997.918890000001</v>
+        <v>11390.590259762201</v>
       </c>
       <c r="I4">
-        <v>9347.8420310000001</v>
+        <v>8773.6730921966591</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1208,19 +1215,19 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="P4">
-        <v>0.99</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.94399999999999995</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="R4">
-        <v>0.72699999999999998</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="S4">
-        <v>0.67500000000000004</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1238,19 +1245,19 @@
         <v>17000</v>
       </c>
       <c r="Y4">
-        <v>12931.69954</v>
+        <v>11793.287323697699</v>
       </c>
       <c r="Z4">
-        <v>15052.56546</v>
+        <v>14896.875192063801</v>
       </c>
       <c r="AA4">
-        <v>14667.31337</v>
+        <v>14319.2069435751</v>
       </c>
       <c r="AB4">
-        <v>15127.811400000001</v>
+        <v>14889.6604702774</v>
       </c>
       <c r="AC4">
-        <v>13848.654860000001</v>
+        <v>13644.903720368</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1276,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>328.03959989999998</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>15295.241599999999</v>
+        <v>14503.349395454599</v>
       </c>
       <c r="G5">
-        <v>27667.166809999999</v>
+        <v>27115.793171804002</v>
       </c>
       <c r="H5">
-        <v>24878.63205</v>
+        <v>23447.207425557499</v>
       </c>
       <c r="I5">
-        <v>19811.079229999999</v>
+        <v>19343.280036453401</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1306,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0.63300000000000001</v>
@@ -1315,7 +1322,7 @@
         <v>0.98</v>
       </c>
       <c r="R5">
-        <v>0.94799999999999995</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="S5">
         <v>0.83499999999999996</v>
@@ -1336,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>11311.71034</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>24163.098890000001</v>
+        <v>22912.084353008901</v>
       </c>
       <c r="AA5">
-        <v>28231.80287</v>
+        <v>27669.176705922499</v>
       </c>
       <c r="AB5">
-        <v>26243.282749999998</v>
+        <v>25430.8106567869</v>
       </c>
       <c r="AC5">
-        <v>23725.843390000002</v>
+        <v>23165.604761107101</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1380,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2641.34881</v>
+        <v>1181.8343468875601</v>
       </c>
       <c r="H6">
-        <v>38178.394070000002</v>
+        <v>38595.234080894101</v>
       </c>
       <c r="I6">
-        <v>47220.595690000002</v>
+        <v>44864.463157549697</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1413,10 +1420,10 @@
         <v>0.1</v>
       </c>
       <c r="R6">
-        <v>0.92300000000000004</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="S6">
-        <v>0.997</v>
+        <v>0.996</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1440,13 +1447,13 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>26413.488099999999</v>
+        <v>11818.343468875601</v>
       </c>
       <c r="AB6">
-        <v>41363.37386</v>
+        <v>41905.791618777599</v>
       </c>
       <c r="AC6">
-        <v>47362.683749999997</v>
+        <v>45044.641724447501</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1481,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3479.692329</v>
+        <v>1590.10729400839</v>
       </c>
       <c r="I7">
-        <v>85128.38364</v>
+        <v>83326.894410233101</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1541,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>27399.1522</v>
+        <v>12520.5298740818</v>
       </c>
       <c r="AC7">
-        <v>85128.38364</v>
+        <v>83326.894410233101</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1946,19 +1953,19 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>12250.25936</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>17000</v>
+        <v>8313</v>
       </c>
       <c r="E14">
-        <v>17000</v>
+        <v>11410.9215179398</v>
       </c>
       <c r="F14">
-        <v>17000</v>
+        <v>16536.378501310599</v>
       </c>
       <c r="G14">
-        <v>17000</v>
+        <v>16901.653979968101</v>
       </c>
       <c r="H14">
         <v>17000</v>
@@ -1976,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2023,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>13417.5638551786</v>
+        <v>12029.205096457201</v>
       </c>
       <c r="G15">
-        <v>22275.282199145298</v>
+        <v>19913.964383845701</v>
       </c>
       <c r="H15">
-        <v>31460.223502084798</v>
+        <v>29810.432995073701</v>
       </c>
       <c r="I15">
-        <v>33710.827345140897</v>
+        <v>33455.178130262299</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2056,13 +2063,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="Q15">
-        <v>0.32900000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="R15">
-        <v>0.14599999999999999</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="S15">
-        <v>3.5999999999999997E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2094,13 +2101,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>152.07032100000001</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>31419.681069999999</v>
+        <v>27556.297112415501</v>
       </c>
       <c r="I16">
-        <v>62716.329080000003</v>
+        <v>60733.557815996501</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2124,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0.73299999999999998</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="S16">
-        <v>0.26</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2165,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>688.65017999999998</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>89247.835869999995</v>
+        <v>85056.349801840901</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2195,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2540,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>12250.25936</v>
+        <v>12250.2593563437</v>
       </c>
       <c r="D24">
         <v>17000</v>
@@ -2617,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26618.415700000001</v>
+        <v>12250.2593563437</v>
       </c>
       <c r="G25">
         <v>34000</v>
@@ -2691,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>60618.415699999998</v>
+        <v>46250.259356343697</v>
       </c>
       <c r="I26">
         <v>68000</v>
@@ -2762,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>128618.4157</v>
+        <v>114250.259356343</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2942,6 +2949,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:V21"/>
+    <mergeCell ref="W21:AF21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="W1:AF1"/>
     <mergeCell ref="M1:V1"/>
@@ -2949,11 +2961,6 @@
     <mergeCell ref="C11:L11"/>
     <mergeCell ref="M11:V11"/>
     <mergeCell ref="W11:AF11"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:V21"/>
-    <mergeCell ref="W21:AF21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
